--- a/Lab5Parte2/TablaLaboratorioFM.xlsx
+++ b/Lab5Parte2/TablaLaboratorioFM.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUANKRONDON\Desktop\LAb_comu\GNURADIO_LABCOMUIS_L1C_G5-main\Lab5Parte2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158DA9DD-A9F0-490D-A38D-DD04A612A50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja 1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -20,137 +25,145 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="35">
   <si>
-    <t xml:space="preserve">Nombre emisora</t>
+    <t>Nombre emisora</t>
   </si>
   <si>
-    <t xml:space="preserve">Frecuencia operación</t>
+    <t>Frecuencia operación</t>
   </si>
   <si>
-    <t xml:space="preserve">Ancho de banda señal sin demodular (imagen medida)</t>
+    <t>Ancho de banda señal sin demodular (imagen medida)</t>
   </si>
   <si>
-    <t xml:space="preserve">Emisora cumple parámetros de ancho de banda (SI/NO)</t>
+    <t>Emisora cumple parámetros de ancho de banda (SI/NO)</t>
   </si>
   <si>
-    <t xml:space="preserve">Emisora legalmente registrada (SI/NO)</t>
+    <t>Emisora legalmente registrada (SI/NO)</t>
   </si>
   <si>
-    <t xml:space="preserve">señal L+R
+    <t>señal L+R
 (SI/NO)</t>
   </si>
   <si>
-    <t xml:space="preserve">Pilot 
+    <t>Pilot 
 (SI/NO)</t>
   </si>
   <si>
-    <t xml:space="preserve">Señal L-R
+    <t>Señal L-R
 (SI/NO)</t>
   </si>
   <si>
-    <t xml:space="preserve">señal RBDS
+    <t>señal RBDS
 (SI/NO)</t>
   </si>
   <si>
-    <t xml:space="preserve">Imagen de evidencia señal demodulada</t>
+    <t>Imagen de evidencia señal demodulada</t>
   </si>
   <si>
-    <t xml:space="preserve">W Radio</t>
+    <t>W Radio</t>
   </si>
   <si>
-    <t xml:space="preserve">Si</t>
+    <t>Si</t>
   </si>
   <si>
-    <t xml:space="preserve">Radio Policía Nacional</t>
+    <t>Radio Policía Nacional</t>
   </si>
   <si>
-    <t xml:space="preserve">No</t>
+    <t>No</t>
   </si>
   <si>
-    <t xml:space="preserve">Colombia Estéreo</t>
+    <t>Colombia Estéreo</t>
   </si>
   <si>
-    <t xml:space="preserve">Se presentan errores en el proceso de demodulación debido a las limitaciones del software</t>
+    <t>Se presentan errores en el proceso de demodulación debido a las limitaciones del software</t>
   </si>
   <si>
-    <t xml:space="preserve">La Brújula FM</t>
+    <t>La Brújula FM</t>
   </si>
   <si>
-    <t xml:space="preserve">Tropicana</t>
+    <t>Tropicana</t>
   </si>
   <si>
-    <t xml:space="preserve">Radio USTA</t>
+    <t>Radio USTA</t>
   </si>
   <si>
-    <t xml:space="preserve">UIS FM</t>
+    <t>UIS FM</t>
   </si>
   <si>
-    <t xml:space="preserve">La FM</t>
+    <t>La FM</t>
   </si>
   <si>
-    <t xml:space="preserve">Emisora La Cultural</t>
+    <t>Emisora La Cultural</t>
   </si>
   <si>
-    <t xml:space="preserve">UTS Radio</t>
+    <t>UTS Radio</t>
   </si>
   <si>
-    <t xml:space="preserve">La Mega</t>
+    <t>La Mega</t>
   </si>
   <si>
-    <t xml:space="preserve">La Guapachosa</t>
+    <t>La Guapachosa</t>
+  </si>
+  <si>
+    <t>La exitosa</t>
+  </si>
+  <si>
+    <t>Radio Nacional de Colombia</t>
+  </si>
+  <si>
+    <t>Olímpica</t>
+  </si>
+  <si>
+    <t>Caracol Radio</t>
+  </si>
+  <si>
+    <t>El sol</t>
+  </si>
+  <si>
+    <t>Bésame</t>
+  </si>
+  <si>
+    <t>Radio Uno</t>
+  </si>
+  <si>
+    <t>La U Radio</t>
+  </si>
+  <si>
+    <t>La Nazarena Estéreo</t>
+  </si>
+  <si>
+    <t>Betuliana Fm Estéreo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -167,94 +180,100 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="4">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -270,12 +289,18 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Imagen 2" descr=""/>
+        <xdr:cNvPr id="2" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:srcRect l="0" t="5735" r="0" b="0"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect t="5735"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -308,12 +333,18 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Imagen 3" descr=""/>
+        <xdr:cNvPr id="3" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect l="0" t="5852" r="0" b="0"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect t="5852"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -346,12 +377,18 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 5" descr=""/>
+        <xdr:cNvPr id="4" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:srcRect l="0" t="6524" r="0" b="0"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect t="6524"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -384,11 +421,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 7" descr=""/>
+        <xdr:cNvPr id="5" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -421,12 +464,18 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 9" descr=""/>
+        <xdr:cNvPr id="6" name="Imagen 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
-        <a:srcRect l="0" t="5095" r="0" b="0"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect t="5095"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -459,12 +508,18 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 11" descr=""/>
+        <xdr:cNvPr id="7" name="Imagen 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
-        <a:srcRect l="0" t="3444" r="0" b="0"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect t="3444"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -497,11 +552,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagen 13" descr=""/>
+        <xdr:cNvPr id="8" name="Imagen 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -534,11 +595,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagen 15" descr=""/>
+        <xdr:cNvPr id="9" name="Imagen 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -564,19 +631,25 @@
       <xdr:rowOff>3240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>5250600</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9252</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>2406600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Imagen 17" descr=""/>
+        <xdr:cNvPr id="10" name="Imagen 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
-        <a:srcRect l="0" t="1533" r="0" b="0"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:srcRect t="1533"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -602,18 +675,24 @@
       <xdr:rowOff>33480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>5250600</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9252</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>2491560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Imagen 19" descr=""/>
+        <xdr:cNvPr id="11" name="Imagen 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -646,11 +725,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Imagen 21" descr=""/>
+        <xdr:cNvPr id="12" name="Imagen 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -683,11 +768,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Imagen 23" descr=""/>
+        <xdr:cNvPr id="13" name="Imagen 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -720,11 +811,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagen 1" descr=""/>
+        <xdr:cNvPr id="14" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -757,11 +854,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Imagen 4" descr=""/>
+        <xdr:cNvPr id="15" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -788,17 +891,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>4996080</xdr:colOff>
+      <xdr:colOff>4977030</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>2424960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Imagen 6" descr=""/>
+        <xdr:cNvPr id="16" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -825,17 +934,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>5032080</xdr:colOff>
+      <xdr:colOff>4984455</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>2346480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Imagen 8" descr=""/>
+        <xdr:cNvPr id="17" name="Imagen 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -868,11 +983,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Imagen 10" descr=""/>
+        <xdr:cNvPr id="18" name="Imagen 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -899,17 +1020,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>5014080</xdr:colOff>
+      <xdr:colOff>4985505</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>2387520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Imagen 12" descr=""/>
+        <xdr:cNvPr id="19" name="Imagen 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -942,11 +1069,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Imagen 14" descr=""/>
+        <xdr:cNvPr id="20" name="Imagen 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -973,17 +1106,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>5246640</xdr:colOff>
+      <xdr:colOff>4979940</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>33120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Imagen 16" descr=""/>
+        <xdr:cNvPr id="21" name="Imagen 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1010,17 +1149,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>5103360</xdr:colOff>
+      <xdr:colOff>4979535</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>2476800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Imagen 18" descr=""/>
+        <xdr:cNvPr id="22" name="Imagen 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId21"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1053,11 +1198,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Imagen 20" descr=""/>
+        <xdr:cNvPr id="23" name="Imagen 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId22"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1084,17 +1235,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>5103360</xdr:colOff>
+      <xdr:colOff>4979535</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>2465640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Imagen 22" descr=""/>
+        <xdr:cNvPr id="24" name="Imagen 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId23"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1127,11 +1284,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Imagen 24" descr=""/>
+        <xdr:cNvPr id="25" name="Imagen 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId24"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1149,39 +1312,1475 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>363681</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>86590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5042772</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2441864</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Imagen 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89BAD5AB-D145-75C7-E533-81CC14438600}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4468090" y="31051499"/>
+          <a:ext cx="4679091" cy="2355274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>121228</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>72035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4925134</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2465599</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Imagen 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{907AD486-3289-975D-4555-E0EA54FDBC48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16538864" y="31036944"/>
+          <a:ext cx="4803906" cy="2393564"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>294408</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>61965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5068867</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2462994</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Imagen 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDB3AF38-E229-0A5A-898D-18B55BBAD8E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4398817" y="33520692"/>
+          <a:ext cx="4774459" cy="2401029"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>86592</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>79043</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4693228</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2393099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Imagen 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2AA5E07-7D5B-C1F9-43B9-06BCFC5567B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16504228" y="33537770"/>
+          <a:ext cx="4606636" cy="2314056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>137822</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4791984</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2407228</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Imagen 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EAAD642-0FFF-BB36-C0B5-586EC43E0720}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16555458" y="36021818"/>
+          <a:ext cx="4654162" cy="2337955"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>185210</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>17319</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5004955</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2444044</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Imagen 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C64D9D72-2FCB-F239-0795-BD94AB0EF10F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4289619" y="35969864"/>
+          <a:ext cx="4819745" cy="2426725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>84428</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>77500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4929187</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>2493740</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Imagen 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8D01077-585C-346E-C226-4DBB84F0F06D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4180178" y="38606125"/>
+          <a:ext cx="4844759" cy="2416240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>184159</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>121226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4710546</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>2379119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Imagen 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC6217A5-6463-2817-7284-09B9A32E30B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16601795" y="38532953"/>
+          <a:ext cx="4526387" cy="2257893"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>103909</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>55889</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4877514</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>2448281</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Imagen 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8C4D61E-5A71-B6FA-2690-4D5BCFC10904}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16521545" y="40961434"/>
+          <a:ext cx="4773605" cy="2392392"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>225136</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76431</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4981423</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>2476853</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Imagen 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{683085BE-D0D0-BED1-EDAC-8E592FB45269}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4329545" y="40981976"/>
+          <a:ext cx="4756287" cy="2400422"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>226251</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>51953</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4898809</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>2407226</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Imagen 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AF09D38-BEF1-1045-A1F1-B376BDAC2378}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4330660" y="43451317"/>
+          <a:ext cx="4672558" cy="2355273"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>138544</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>51566</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4881849</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>2459534</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Imagen 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29123435-B064-FE11-A3CA-80364D90E8C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16556180" y="43450930"/>
+          <a:ext cx="4743305" cy="2407968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>311727</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>134762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4913881</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>2419710</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Imagen 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5444031A-192A-7E19-BFF5-20592E832631}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4416136" y="46027944"/>
+          <a:ext cx="4602154" cy="2284948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>34637</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4975360</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>2488983</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Imagen 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B566C173-F611-DE5D-8AE1-AFB9D7CE8772}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16452273" y="45931982"/>
+          <a:ext cx="4940723" cy="2450183"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>207818</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>27040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5025584</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2450010</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Imagen 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBB77178-7620-B108-856C-D40597CA212F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4312227" y="48414040"/>
+          <a:ext cx="4817766" cy="2422970"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>138546</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>77811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4745182</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2370315</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Imagen 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18ACA241-862A-31F7-F9D2-B3A809B292CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16556182" y="48464811"/>
+          <a:ext cx="4606636" cy="2292504"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>173182</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>50010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4990948</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>2456076</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Imagen 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF28D5F7-AC9D-6AE7-8C42-EB69B438DBC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4277591" y="50930828"/>
+          <a:ext cx="4817766" cy="2406066"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>155862</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>81512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4838541</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>2392869</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Imagen 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F2452BA-002B-29B0-621C-CE363E282F2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16573498" y="50962330"/>
+          <a:ext cx="4682679" cy="2311357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>160569</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4768945</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2424546</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Imagen 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31CBDE0F-B657-75C6-B12B-09B99BC77068}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264978" y="53443909"/>
+          <a:ext cx="4608376" cy="2355273"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>12857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4738970</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2292417</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Imagen 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33C93E05-E644-E274-00FD-F048045E77E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16608137" y="53387493"/>
+          <a:ext cx="4548469" cy="2279560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>242455</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>107407</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4710545</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2320814</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Imagen 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66D8855F-9A7D-E268-6051-D7820C773FD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4346864" y="55975862"/>
+          <a:ext cx="4468090" cy="2213407"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>225136</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>90554</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4754558</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2371214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Imagen 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E644D184-98E5-F405-4587-6A49C22DC7EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16642772" y="55959009"/>
+          <a:ext cx="4529422" cy="2280660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>294410</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>127984</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4750576</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>2337953</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Imagen 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{952593F1-55CD-6D0A-BBA5-BFFD1B805374}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4398819" y="58490257"/>
+          <a:ext cx="4456166" cy="2209969"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>103909</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4962377</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>4689</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Imagen 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{955C7F31-8108-8B8C-E0FD-520F3ADA2D11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16521545" y="58431546"/>
+          <a:ext cx="4858468" cy="2429234"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257607</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47623</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4969230</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>2357437</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Imagen 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{678CEFB8-0ADC-DD93-DF0C-55F9C77A135A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4353357" y="61079061"/>
+          <a:ext cx="4711623" cy="2309814"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>155864</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>97463</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4804605</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>2424545</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Imagen 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4FA8A3E-F683-687C-B7DF-CA0E8F9AF322}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16573500" y="60953554"/>
+          <a:ext cx="4648741" cy="2327082"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD110"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="78.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="17.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="74.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="18.12"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="78.28515625" customWidth="1"/>
+    <col min="5" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="74.7109375" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="1.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="1.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="74.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:30" ht="5.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:30" ht="1.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:30" ht="1.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:30" ht="74.650000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>0</v>
@@ -1233,11 +2832,11 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="196.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:30" ht="196.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="4">
         <v>90.7</v>
       </c>
       <c r="D5" s="3"/>
@@ -1261,11 +2860,11 @@
       </c>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="196.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:30" ht="196.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="4">
         <v>91.7</v>
       </c>
       <c r="D6" s="3"/>
@@ -1289,11 +2888,11 @@
       </c>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="196.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:30" ht="196.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="4">
         <v>92.9</v>
       </c>
       <c r="D7" s="3"/>
@@ -1320,11 +2919,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="196.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:30" ht="196.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="4">
         <v>93.4</v>
       </c>
       <c r="D8" s="3"/>
@@ -1348,11 +2947,11 @@
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="196.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:30" ht="196.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="4">
         <v>95.7</v>
       </c>
       <c r="D9" s="3"/>
@@ -1374,11 +2973,11 @@
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="196.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:30" ht="196.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="4">
         <v>96.2</v>
       </c>
       <c r="D10" s="3"/>
@@ -1402,11 +3001,11 @@
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="196.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:30" ht="196.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="4">
         <v>96.9</v>
       </c>
       <c r="D11" s="3"/>
@@ -1430,11 +3029,11 @@
       </c>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="196.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:30" ht="196.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="4">
         <v>99.7</v>
       </c>
       <c r="D12" s="3"/>
@@ -1458,11 +3057,11 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="196.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:30" ht="196.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="4">
         <v>100.7</v>
       </c>
       <c r="D13" s="3"/>
@@ -1486,11 +3085,11 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="196.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:30" ht="196.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="4">
         <v>101.7</v>
       </c>
       <c r="D14" s="3"/>
@@ -1514,11 +3113,11 @@
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="196.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:30" ht="196.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="4">
         <v>102.5</v>
       </c>
       <c r="D15" s="3"/>
@@ -1542,11 +3141,11 @@
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="196.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:30" ht="196.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="4">
         <v>105.1</v>
       </c>
       <c r="D16" s="3"/>
@@ -1570,189 +3169,365 @@
       </c>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" customFormat="false" ht="196.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="n">
+    <row r="17" spans="2:11" ht="196.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="3">
         <v>89.1</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" customFormat="false" ht="196.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="n">
+    <row r="18" spans="2:11" ht="196.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="3">
         <v>92.3</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="194" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="n">
+    <row r="19" spans="2:11" ht="194.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="3">
         <v>97.7</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="196.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="n">
+    <row r="20" spans="2:11" ht="196.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="3">
         <v>99.2</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" customFormat="false" ht="196.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="n">
+    <row r="21" spans="2:11" ht="196.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="3">
         <v>103.7</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" customFormat="false" ht="196.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="n">
+    <row r="22" spans="2:11" ht="196.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="3">
         <v>104.7</v>
       </c>
       <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" customFormat="false" ht="196.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3" t="n">
+    <row r="23" spans="2:11" ht="196.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="3">
         <v>106.7</v>
       </c>
       <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" customFormat="false" ht="196.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="n">
+    <row r="24" spans="2:11" ht="196.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="3">
         <v>107.7</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" customFormat="false" ht="196.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3" t="n">
+    <row r="25" spans="2:11" ht="196.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="3">
         <v>90.5</v>
       </c>
       <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" customFormat="false" ht="196.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:11" ht="196.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
-      <c r="C26" s="3" t="n">
+      <c r="C26" s="3">
         <v>93.7</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" customFormat="false" ht="196.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="2:11" ht="196.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="3"/>
-      <c r="C27" s="3" t="n">
+      <c r="C27" s="3">
         <v>94.7</v>
       </c>
       <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" customFormat="false" ht="196.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="2:11" ht="196.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
-      <c r="C28" s="3" t="n">
+      <c r="C28" s="3">
         <v>96.4</v>
       </c>
       <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" customFormat="false" ht="196.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3" t="n">
+    <row r="29" spans="2:11" ht="196.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="3">
         <v>107.2</v>
       </c>
       <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="8"/>
+    </row>
+    <row r="30" spans="2:11" ht="25.5" x14ac:dyDescent="0.35">
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -1762,9 +3537,9 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
-      <c r="K30" s="7"/>
-    </row>
-    <row r="31" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K30" s="10"/>
+    </row>
+    <row r="31" spans="2:11" ht="25.5" x14ac:dyDescent="0.35">
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -1774,9 +3549,9 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="7"/>
-    </row>
-    <row r="32" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="2:11" ht="25.5" x14ac:dyDescent="0.35">
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -1786,9 +3561,9 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
-      <c r="K32" s="7"/>
-    </row>
-    <row r="33" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="2:11" ht="25.5" x14ac:dyDescent="0.35">
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -1800,7 +3575,7 @@
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1812,7 +3587,7 @@
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -1824,7 +3599,7 @@
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -1836,7 +3611,7 @@
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -1848,7 +3623,7 @@
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -1860,7 +3635,7 @@
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -1872,7 +3647,7 @@
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -1884,7 +3659,7 @@
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1896,7 +3671,7 @@
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -1908,7 +3683,7 @@
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -1920,7 +3695,7 @@
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -1932,7 +3707,7 @@
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -1944,7 +3719,7 @@
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -1956,7 +3731,7 @@
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -1968,7 +3743,7 @@
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -1980,7 +3755,7 @@
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -1992,7 +3767,7 @@
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -2004,7 +3779,7 @@
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -2016,7 +3791,7 @@
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -2028,7 +3803,7 @@
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -2040,7 +3815,7 @@
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
     </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -2052,7 +3827,7 @@
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
     </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -2064,7 +3839,7 @@
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
     </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -2076,7 +3851,7 @@
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -2088,7 +3863,7 @@
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
     </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -2100,7 +3875,7 @@
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -2112,7 +3887,7 @@
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -2124,7 +3899,7 @@
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
     </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -2136,7 +3911,7 @@
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -2148,7 +3923,7 @@
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
     </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -2160,7 +3935,7 @@
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
     </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -2172,7 +3947,7 @@
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
     </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -2184,7 +3959,7 @@
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
     </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -2196,7 +3971,7 @@
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
     </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -2208,7 +3983,7 @@
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
     </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -2220,7 +3995,7 @@
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
     </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -2232,7 +4007,7 @@
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
     </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -2244,7 +4019,7 @@
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
     </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -2256,7 +4031,7 @@
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
     </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -2268,7 +4043,7 @@
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
     </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -2280,7 +4055,7 @@
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
     </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -2292,7 +4067,7 @@
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
     </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -2304,7 +4079,7 @@
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
     </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -2316,7 +4091,7 @@
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
     </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -2328,7 +4103,7 @@
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
     </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -2340,7 +4115,7 @@
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
     </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -2352,7 +4127,7 @@
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
     </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -2364,7 +4139,7 @@
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
     </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -2376,7 +4151,7 @@
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
     </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -2388,7 +4163,7 @@
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
     </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2400,7 +4175,7 @@
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
     </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -2412,7 +4187,7 @@
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
     </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -2424,7 +4199,7 @@
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
     </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -2436,7 +4211,7 @@
       <c r="J86" s="6"/>
       <c r="K86" s="6"/>
     </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -2448,7 +4223,7 @@
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
     </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -2460,7 +4235,7 @@
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
     </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -2472,7 +4247,7 @@
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
     </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -2484,7 +4259,7 @@
       <c r="J90" s="6"/>
       <c r="K90" s="6"/>
     </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -2496,7 +4271,7 @@
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
     </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -2508,7 +4283,7 @@
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
     </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -2520,7 +4295,7 @@
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
     </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -2532,7 +4307,7 @@
       <c r="J94" s="6"/>
       <c r="K94" s="6"/>
     </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -2544,7 +4319,7 @@
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
     </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -2556,7 +4331,7 @@
       <c r="J96" s="6"/>
       <c r="K96" s="6"/>
     </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -2568,7 +4343,7 @@
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
     </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -2580,7 +4355,7 @@
       <c r="J98" s="6"/>
       <c r="K98" s="6"/>
     </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -2592,7 +4367,7 @@
       <c r="J99" s="6"/>
       <c r="K99" s="6"/>
     </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
@@ -2604,7 +4379,7 @@
       <c r="J100" s="6"/>
       <c r="K100" s="6"/>
     </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -2616,7 +4391,7 @@
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
     </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -2628,7 +4403,7 @@
       <c r="J102" s="6"/>
       <c r="K102" s="6"/>
     </row>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
@@ -2640,7 +4415,7 @@
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
     </row>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -2652,7 +4427,7 @@
       <c r="J104" s="6"/>
       <c r="K104" s="6"/>
     </row>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -2664,7 +4439,7 @@
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
     </row>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -2676,7 +4451,7 @@
       <c r="J106" s="6"/>
       <c r="K106" s="6"/>
     </row>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -2688,7 +4463,7 @@
       <c r="J107" s="6"/>
       <c r="K107" s="6"/>
     </row>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
@@ -2700,7 +4475,7 @@
       <c r="J108" s="6"/>
       <c r="K108" s="6"/>
     </row>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
@@ -2712,15 +4487,10 @@
       <c r="J109" s="6"/>
       <c r="K109" s="6"/>
     </row>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="110" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>